--- a/java/Eclipse/PageObjectModelBasics/src/test/resources/com/w2a/excel/testData.xlsx
+++ b/java/Eclipse/PageObjectModelBasics/src/test/resources/com/w2a/excel/testData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisontranimac/Google Drive/Coding/Github/java-home-google/java/Eclipse/DataDrivenFramework/src/test/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisontranimac/Google Drive/Coding/Github/java-home-google/java/Eclipse/PageObjectModelBasics/src/test/resources/com/w2a/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF17757-9475-6846-AD1A-8E65DD176347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7857370-6D40-D946-9E1E-0408D119136F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
+    <workbookView xWindow="-29680" yWindow="-3020" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{2A77E119-6978-5B45-A49F-548154D1E32F}"/>
   </bookViews>
   <sheets>
-    <sheet name="addCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="openAccountTest" sheetId="2" r:id="rId2"/>
-    <sheet name="test_suite" sheetId="3" r:id="rId3"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId1"/>
+    <sheet name="LoginTest" sheetId="1" r:id="rId2"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,79 +35,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>postalCode</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>support@wonpros.com</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>100Millionby2030</t>
+  </si>
+  <si>
+    <t>CreateAccountTest</t>
+  </si>
+  <si>
+    <t>accountname</t>
   </si>
   <si>
     <t>harrison</t>
-  </si>
-  <si>
-    <t>tran</t>
-  </si>
-  <si>
-    <t>Customer added successfully</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
-    <t>jacquelin</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Dollar</t>
-  </si>
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t>BankManagerLoginTest</t>
-  </si>
-  <si>
-    <t>AddCustomerTest</t>
-  </si>
-  <si>
-    <t>OpenAccountTest</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>alerttext</t>
-  </si>
-  <si>
-    <t>runmode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +88,20 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1290C3"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -139,18 +123,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,142 +450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182557BD-18B7-6D4F-B08A-D62ACE249FF9}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>92804</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>92804</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>92804</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>92804</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A487AA13-8EE4-C147-9CC1-2886C589E313}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A3E68E-662F-DE43-B27B-5F260B89DA34}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,34 +465,99 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
+      <c r="A2" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
+      <c r="A4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182557BD-18B7-6D4F-B08A-D62ACE249FF9}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{82814721-2CAC-A149-97F2-981CE44C80EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E80D6C7-0B30-234F-A8D8-2873712284B5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
